--- a/Code/Results/Cases/Case_4_104/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_104/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018297466185087</v>
+        <v>1.044871575449428</v>
       </c>
       <c r="D2">
-        <v>1.03212148485736</v>
+        <v>1.045513116010696</v>
       </c>
       <c r="E2">
-        <v>1.03358864291301</v>
+        <v>1.058222930568204</v>
       </c>
       <c r="F2">
-        <v>1.035704446601659</v>
+        <v>1.065153902051089</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053283299939018</v>
+        <v>1.043521990393978</v>
       </c>
       <c r="J2">
-        <v>1.039944344521385</v>
+        <v>1.049934340087536</v>
       </c>
       <c r="K2">
-        <v>1.043150744481775</v>
+        <v>1.048281145596202</v>
       </c>
       <c r="L2">
-        <v>1.04459905701998</v>
+        <v>1.060955752903116</v>
       </c>
       <c r="M2">
-        <v>1.046687800861631</v>
+        <v>1.067867908212554</v>
       </c>
       <c r="N2">
-        <v>1.041421184773889</v>
+        <v>1.051425367279613</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02301176739662</v>
+        <v>1.04585432389959</v>
       </c>
       <c r="D3">
-        <v>1.035573101936145</v>
+        <v>1.046244273953502</v>
       </c>
       <c r="E3">
-        <v>1.038118797457177</v>
+        <v>1.059227385963914</v>
       </c>
       <c r="F3">
-        <v>1.040794113540768</v>
+        <v>1.066299642683366</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054944100976811</v>
+        <v>1.043798993715062</v>
       </c>
       <c r="J3">
-        <v>1.042894177568112</v>
+        <v>1.050564355742953</v>
       </c>
       <c r="K3">
-        <v>1.04577018465987</v>
+        <v>1.048823968273799</v>
       </c>
       <c r="L3">
-        <v>1.048286110356493</v>
+        <v>1.061773715953557</v>
       </c>
       <c r="M3">
-        <v>1.050930334773765</v>
+        <v>1.068828166475832</v>
       </c>
       <c r="N3">
-        <v>1.044375206921893</v>
+        <v>1.052056277629524</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.025997219588925</v>
+        <v>1.046490428242637</v>
       </c>
       <c r="D4">
-        <v>1.037760966730116</v>
+        <v>1.046717447159297</v>
       </c>
       <c r="E4">
-        <v>1.040992757978895</v>
+        <v>1.05987794047193</v>
       </c>
       <c r="F4">
-        <v>1.044024093986123</v>
+        <v>1.067041926222849</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055984984218044</v>
+        <v>1.043976953977678</v>
       </c>
       <c r="J4">
-        <v>1.044758507773246</v>
+        <v>1.050971601249028</v>
       </c>
       <c r="K4">
-        <v>1.047424048874978</v>
+        <v>1.049174607287866</v>
       </c>
       <c r="L4">
-        <v>1.050620383594558</v>
+        <v>1.062302983137035</v>
       </c>
       <c r="M4">
-        <v>1.053618707088262</v>
+        <v>1.069449843228557</v>
       </c>
       <c r="N4">
-        <v>1.04624218468976</v>
+        <v>1.05246410147093</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027237315119916</v>
+        <v>1.046757894086728</v>
       </c>
       <c r="D5">
-        <v>1.038670198964178</v>
+        <v>1.046916383853242</v>
       </c>
       <c r="E5">
-        <v>1.042187748039938</v>
+        <v>1.060151577732052</v>
       </c>
       <c r="F5">
-        <v>1.045367390581574</v>
+        <v>1.067354200289691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056414701697505</v>
+        <v>1.044051461827065</v>
       </c>
       <c r="J5">
-        <v>1.045531987397311</v>
+        <v>1.0511427069807</v>
       </c>
       <c r="K5">
-        <v>1.04810980109294</v>
+        <v>1.049321870862598</v>
       </c>
       <c r="L5">
-        <v>1.051589810330063</v>
+        <v>1.06252548423294</v>
       </c>
       <c r="M5">
-        <v>1.05473578512342</v>
+        <v>1.069711273574512</v>
       </c>
       <c r="N5">
-        <v>1.047016762743611</v>
+        <v>1.052635450192366</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027444669872451</v>
+        <v>1.046802805557525</v>
       </c>
       <c r="D6">
-        <v>1.038822254796462</v>
+        <v>1.046949787033701</v>
       </c>
       <c r="E6">
-        <v>1.042387630994186</v>
+        <v>1.060197531066808</v>
       </c>
       <c r="F6">
-        <v>1.045592097029295</v>
+        <v>1.06740664525432</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056486397667327</v>
+        <v>1.044063954030816</v>
       </c>
       <c r="J6">
-        <v>1.045661264670296</v>
+        <v>1.051171430490799</v>
       </c>
       <c r="K6">
-        <v>1.048224391484185</v>
+        <v>1.049346588541322</v>
       </c>
       <c r="L6">
-        <v>1.05175189541499</v>
+        <v>1.062562842964852</v>
       </c>
       <c r="M6">
-        <v>1.054922592269654</v>
+        <v>1.069755173407336</v>
       </c>
       <c r="N6">
-        <v>1.047146223605151</v>
+        <v>1.052664214493144</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026013847959823</v>
+        <v>1.046494001947869</v>
       </c>
       <c r="D7">
-        <v>1.037773156909022</v>
+        <v>1.046720105304612</v>
       </c>
       <c r="E7">
-        <v>1.041008776798773</v>
+        <v>1.059881596260775</v>
       </c>
       <c r="F7">
-        <v>1.044042099746377</v>
+        <v>1.067046097987908</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055990756771828</v>
+        <v>1.043977950760552</v>
       </c>
       <c r="J7">
-        <v>1.044768883011723</v>
+        <v>1.050973887966853</v>
       </c>
       <c r="K7">
-        <v>1.047433248993195</v>
+        <v>1.049176575601692</v>
       </c>
       <c r="L7">
-        <v>1.050633383338599</v>
+        <v>1.06230595621934</v>
       </c>
       <c r="M7">
-        <v>1.053633684434779</v>
+        <v>1.06945333616994</v>
       </c>
       <c r="N7">
-        <v>1.046252574662265</v>
+        <v>1.052466391436155</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019904505224074</v>
+        <v>1.04520365816177</v>
       </c>
       <c r="D8">
-        <v>1.033297632673984</v>
+        <v>1.045760200227594</v>
       </c>
       <c r="E8">
-        <v>1.035131819000684</v>
+        <v>1.058562265390425</v>
       </c>
       <c r="F8">
-        <v>1.037438007409659</v>
+        <v>1.065540921205862</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053851699364733</v>
+        <v>1.043615869661435</v>
       </c>
       <c r="J8">
-        <v>1.040950664305033</v>
+        <v>1.050147342813375</v>
       </c>
       <c r="K8">
-        <v>1.044044692715183</v>
+        <v>1.048464719686556</v>
       </c>
       <c r="L8">
-        <v>1.045856040839973</v>
+        <v>1.061232189016526</v>
       </c>
       <c r="M8">
-        <v>1.048133656623622</v>
+        <v>1.068192364317593</v>
       </c>
       <c r="N8">
-        <v>1.042428933647056</v>
+        <v>1.051638672493753</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008613576185284</v>
+        <v>1.042931459343919</v>
       </c>
       <c r="D9">
-        <v>1.025044994388552</v>
+        <v>1.044069263712775</v>
       </c>
       <c r="E9">
-        <v>1.024312410519552</v>
+        <v>1.056242094335347</v>
       </c>
       <c r="F9">
-        <v>1.025287464812175</v>
+        <v>1.062895617244296</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049813575073246</v>
+        <v>1.042968053197926</v>
       </c>
       <c r="J9">
-        <v>1.033865790974604</v>
+        <v>1.048687695073564</v>
       </c>
       <c r="K9">
-        <v>1.037744394520651</v>
+        <v>1.04720574126911</v>
       </c>
       <c r="L9">
-        <v>1.037022977412687</v>
+        <v>1.059340023560351</v>
       </c>
       <c r="M9">
-        <v>1.037983173453348</v>
+        <v>1.065972883996105</v>
       </c>
       <c r="N9">
-        <v>1.035333998983852</v>
+        <v>1.050176951886729</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000691751025991</v>
+        <v>1.041417724241396</v>
       </c>
       <c r="D10">
-        <v>1.019271286756076</v>
+        <v>1.042942387756301</v>
       </c>
       <c r="E10">
-        <v>1.016751690936019</v>
+        <v>1.054698480414818</v>
       </c>
       <c r="F10">
-        <v>1.016800250193157</v>
+        <v>1.061136817965907</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046925436572333</v>
+        <v>1.042529617735946</v>
       </c>
       <c r="J10">
-        <v>1.028877950221206</v>
+        <v>1.047712494041499</v>
       </c>
       <c r="K10">
-        <v>1.033301096673414</v>
+        <v>1.046363364004099</v>
       </c>
       <c r="L10">
-        <v>1.03082493509753</v>
+        <v>1.058078575349395</v>
       </c>
       <c r="M10">
-        <v>1.030872654630557</v>
+        <v>1.06449494592316</v>
       </c>
       <c r="N10">
-        <v>1.03033907492447</v>
+        <v>1.049200365957341</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9971578638986368</v>
+        <v>1.040762516245141</v>
       </c>
       <c r="D11">
-        <v>1.016700441781629</v>
+        <v>1.04245454717273</v>
       </c>
       <c r="E11">
-        <v>1.013386511396307</v>
+        <v>1.054030836314732</v>
       </c>
       <c r="F11">
-        <v>1.013023253858027</v>
+        <v>1.060376366141589</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045624601864604</v>
+        <v>1.042338218806388</v>
       </c>
       <c r="J11">
-        <v>1.026649358914156</v>
+        <v>1.047289728055492</v>
       </c>
       <c r="K11">
-        <v>1.031314137939136</v>
+        <v>1.045997886426492</v>
       </c>
       <c r="L11">
-        <v>1.028060317411281</v>
+        <v>1.057532358854647</v>
       </c>
       <c r="M11">
-        <v>1.027703679963616</v>
+        <v>1.063855394043797</v>
       </c>
       <c r="N11">
-        <v>1.028107318762141</v>
+        <v>1.048776999595142</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9958287096149758</v>
+        <v>1.04051918047335</v>
       </c>
       <c r="D12">
-        <v>1.015734300870003</v>
+        <v>1.0422733579165</v>
       </c>
       <c r="E12">
-        <v>1.012121995374485</v>
+        <v>1.053782956844091</v>
       </c>
       <c r="F12">
-        <v>1.011604045170924</v>
+        <v>1.06009406896952</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045133517813795</v>
+        <v>1.042266891589695</v>
       </c>
       <c r="J12">
-        <v>1.025810661138174</v>
+        <v>1.047132619579287</v>
       </c>
       <c r="K12">
-        <v>1.030566139783034</v>
+        <v>1.045862023672068</v>
       </c>
       <c r="L12">
-        <v>1.027020584555771</v>
+        <v>1.05732946993861</v>
       </c>
       <c r="M12">
-        <v>1.026512256309027</v>
+        <v>1.063617897151986</v>
       </c>
       <c r="N12">
-        <v>1.027267429939118</v>
+        <v>1.04861966800688</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9961145806746802</v>
+        <v>1.040571375115414</v>
       </c>
       <c r="D13">
-        <v>1.015942058629153</v>
+        <v>1.042312222869267</v>
       </c>
       <c r="E13">
-        <v>1.012393910030883</v>
+        <v>1.053836122698672</v>
       </c>
       <c r="F13">
-        <v>1.011909222172308</v>
+        <v>1.06015461504247</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045239220175628</v>
+        <v>1.042282202065321</v>
       </c>
       <c r="J13">
-        <v>1.025991067349016</v>
+        <v>1.04716632323984</v>
       </c>
       <c r="K13">
-        <v>1.030727046620509</v>
+        <v>1.045891171578824</v>
       </c>
       <c r="L13">
-        <v>1.027244203017215</v>
+        <v>1.057372990284259</v>
       </c>
       <c r="M13">
-        <v>1.026768482373535</v>
+        <v>1.063668838269418</v>
       </c>
       <c r="N13">
-        <v>1.027448092347472</v>
+        <v>1.048653419530497</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.997048338069654</v>
+        <v>1.040742401265105</v>
       </c>
       <c r="D14">
-        <v>1.016620812546942</v>
+        <v>1.042439569671869</v>
       </c>
       <c r="E14">
-        <v>1.01328228762463</v>
+        <v>1.054010344206926</v>
       </c>
       <c r="F14">
-        <v>1.012906279116162</v>
+        <v>1.060353027930601</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045584171877724</v>
+        <v>1.042332327630717</v>
       </c>
       <c r="J14">
-        <v>1.026580257632564</v>
+        <v>1.047276742934672</v>
       </c>
       <c r="K14">
-        <v>1.031252514190403</v>
+        <v>1.045986658171546</v>
       </c>
       <c r="L14">
-        <v>1.027974638673601</v>
+        <v>1.057515587987086</v>
       </c>
       <c r="M14">
-        <v>1.02760549354345</v>
+        <v>1.063835761227417</v>
       </c>
       <c r="N14">
-        <v>1.028038119348804</v>
+        <v>1.048763996033961</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9976214397715397</v>
+        <v>1.040847781115636</v>
       </c>
       <c r="D15">
-        <v>1.017037511149305</v>
+        <v>1.042518034444973</v>
       </c>
       <c r="E15">
-        <v>1.013827694441412</v>
+        <v>1.054117702851995</v>
       </c>
       <c r="F15">
-        <v>1.013518414230568</v>
+        <v>1.060475298994058</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045795650891186</v>
+        <v>1.042363180761461</v>
       </c>
       <c r="J15">
-        <v>1.026941815431606</v>
+        <v>1.047344766310202</v>
       </c>
       <c r="K15">
-        <v>1.031574937896475</v>
+        <v>1.046045476301112</v>
       </c>
       <c r="L15">
-        <v>1.028422962539339</v>
+        <v>1.057603447177255</v>
       </c>
       <c r="M15">
-        <v>1.028119280768266</v>
+        <v>1.063938616083193</v>
       </c>
       <c r="N15">
-        <v>1.028400190601392</v>
+        <v>1.048832116010487</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000924020866124</v>
+        <v>1.041461213507329</v>
       </c>
       <c r="D16">
-        <v>1.019440365315851</v>
+        <v>1.042974766392613</v>
       </c>
       <c r="E16">
-        <v>1.016973034161374</v>
+        <v>1.054742805614895</v>
       </c>
       <c r="F16">
-        <v>1.017048689573051</v>
+        <v>1.061187310264343</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04701068096531</v>
+        <v>1.042542287544697</v>
       </c>
       <c r="J16">
-        <v>1.029024357625556</v>
+        <v>1.047740541178125</v>
       </c>
       <c r="K16">
-        <v>1.033431596556948</v>
+        <v>1.046387604361058</v>
       </c>
       <c r="L16">
-        <v>1.031006653249655</v>
+        <v>1.058114825948108</v>
       </c>
       <c r="M16">
-        <v>1.031081004976717</v>
+        <v>1.064537399434457</v>
       </c>
       <c r="N16">
-        <v>1.030485690244128</v>
+        <v>1.049228452924118</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002967246218044</v>
+        <v>1.041846070321198</v>
       </c>
       <c r="D17">
-        <v>1.020928263761744</v>
+        <v>1.043261290731744</v>
       </c>
       <c r="E17">
-        <v>1.018921011679208</v>
+        <v>1.055135117427229</v>
       </c>
       <c r="F17">
-        <v>1.019235192162962</v>
+        <v>1.061634236117174</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047759146938266</v>
+        <v>1.042654220770453</v>
       </c>
       <c r="J17">
-        <v>1.030311873151307</v>
+        <v>1.047988667367835</v>
       </c>
       <c r="K17">
-        <v>1.034579032298991</v>
+        <v>1.046602019103319</v>
       </c>
       <c r="L17">
-        <v>1.032605225563251</v>
+        <v>1.058435600311516</v>
       </c>
       <c r="M17">
-        <v>1.032914159887791</v>
+        <v>1.064913109065454</v>
       </c>
       <c r="N17">
-        <v>1.031775034189605</v>
+        <v>1.049476931481478</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.004149087675617</v>
+        <v>1.042070574829105</v>
       </c>
       <c r="D18">
-        <v>1.021789340695335</v>
+        <v>1.043428425524992</v>
       </c>
       <c r="E18">
-        <v>1.020048479458024</v>
+        <v>1.055364018691398</v>
       </c>
       <c r="F18">
-        <v>1.020500770258504</v>
+        <v>1.061895028440162</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048190890653039</v>
+        <v>1.042719359621278</v>
       </c>
       <c r="J18">
-        <v>1.031056258691646</v>
+        <v>1.048133347148944</v>
       </c>
       <c r="K18">
-        <v>1.035242270405667</v>
+        <v>1.046727013837308</v>
       </c>
       <c r="L18">
-        <v>1.03352989646598</v>
+        <v>1.058622702439698</v>
       </c>
       <c r="M18">
-        <v>1.033974774005519</v>
+        <v>1.06513229319898</v>
       </c>
       <c r="N18">
-        <v>1.032520476842794</v>
+        <v>1.049621816724471</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004550406733173</v>
+        <v>1.042147129136157</v>
       </c>
       <c r="D19">
-        <v>1.022081811029272</v>
+        <v>1.043485415840758</v>
       </c>
       <c r="E19">
-        <v>1.02043145570202</v>
+        <v>1.055442080377146</v>
       </c>
       <c r="F19">
-        <v>1.020930669695535</v>
+        <v>1.061983970199878</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048337295995506</v>
+        <v>1.042741544851505</v>
       </c>
       <c r="J19">
-        <v>1.031308971686957</v>
+        <v>1.048182671057654</v>
       </c>
       <c r="K19">
-        <v>1.035467406990132</v>
+        <v>1.046769621965283</v>
       </c>
       <c r="L19">
-        <v>1.033843890986381</v>
+        <v>1.058686499396675</v>
       </c>
       <c r="M19">
-        <v>1.034334974625284</v>
+        <v>1.065207035940945</v>
       </c>
       <c r="N19">
-        <v>1.032773548719545</v>
+        <v>1.049671210678789</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00274906186034</v>
+        <v>1.041804776339267</v>
       </c>
       <c r="D20">
-        <v>1.020769332613124</v>
+        <v>1.043230548342171</v>
       </c>
       <c r="E20">
-        <v>1.018712923354244</v>
+        <v>1.055093018588287</v>
       </c>
       <c r="F20">
-        <v>1.019001618468718</v>
+        <v>1.061586274026443</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047679344994277</v>
+        <v>1.042642226898217</v>
       </c>
       <c r="J20">
-        <v>1.030174421551311</v>
+        <v>1.047962050740822</v>
       </c>
       <c r="K20">
-        <v>1.034456551661138</v>
+        <v>1.046579021642633</v>
       </c>
       <c r="L20">
-        <v>1.032434520233911</v>
+        <v>1.058401184268861</v>
       </c>
       <c r="M20">
-        <v>1.032718378323377</v>
+        <v>1.064872794935106</v>
       </c>
       <c r="N20">
-        <v>1.031637387392571</v>
+        <v>1.049450277055802</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9967738334426135</v>
+        <v>1.040692037285771</v>
       </c>
       <c r="D21">
-        <v>1.01642125087966</v>
+        <v>1.042402068751716</v>
       </c>
       <c r="E21">
-        <v>1.013021090762093</v>
+        <v>1.053959037184462</v>
       </c>
       <c r="F21">
-        <v>1.012613127602201</v>
+        <v>1.060294595627079</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045482813084171</v>
+        <v>1.042317573334542</v>
       </c>
       <c r="J21">
-        <v>1.026407061374188</v>
+        <v>1.047244229136479</v>
       </c>
       <c r="K21">
-        <v>1.031098055974211</v>
+        <v>1.045958542730554</v>
       </c>
       <c r="L21">
-        <v>1.027759903555183</v>
+        <v>1.057473596508926</v>
       </c>
       <c r="M21">
-        <v>1.027359416736366</v>
+        <v>1.063786604886231</v>
       </c>
       <c r="N21">
-        <v>1.027864677131876</v>
+        <v>1.048731436062445</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.992920924925786</v>
+        <v>1.039992632017158</v>
       </c>
       <c r="D22">
-        <v>1.013622236228529</v>
+        <v>1.041881266370436</v>
       </c>
       <c r="E22">
-        <v>1.009357844300421</v>
+        <v>1.053246713671267</v>
       </c>
       <c r="F22">
-        <v>1.008501810019635</v>
+        <v>1.059483441133856</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044055890682885</v>
+        <v>1.042112102052886</v>
       </c>
       <c r="J22">
-        <v>1.023975001100906</v>
+        <v>1.046792476137357</v>
       </c>
       <c r="K22">
-        <v>1.028928579467777</v>
+        <v>1.045567797754812</v>
       </c>
       <c r="L22">
-        <v>1.024746172256859</v>
+        <v>1.056890386673105</v>
       </c>
       <c r="M22">
-        <v>1.023906705109731</v>
+        <v>1.063104028049064</v>
       </c>
       <c r="N22">
-        <v>1.025429163054043</v>
+        <v>1.048279041522247</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9949728596085732</v>
+        <v>1.040363379258114</v>
       </c>
       <c r="D23">
-        <v>1.015112432118599</v>
+        <v>1.042157344232417</v>
       </c>
       <c r="E23">
-        <v>1.011308105268387</v>
+        <v>1.053624267545877</v>
       </c>
       <c r="F23">
-        <v>1.010690600276168</v>
+        <v>1.059913356977682</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044816800364334</v>
+        <v>1.042221154020655</v>
       </c>
       <c r="J23">
-        <v>1.02527048737173</v>
+        <v>1.047031999588033</v>
       </c>
       <c r="K23">
-        <v>1.03008431797934</v>
+        <v>1.045774998172066</v>
       </c>
       <c r="L23">
-        <v>1.026351124344994</v>
+        <v>1.057199556982836</v>
       </c>
       <c r="M23">
-        <v>1.025745231433545</v>
+        <v>1.063465841294255</v>
       </c>
       <c r="N23">
-        <v>1.026726489063967</v>
+        <v>1.048518905123697</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002847680620808</v>
+        <v>1.041823435237853</v>
       </c>
       <c r="D24">
-        <v>1.020841167696138</v>
+        <v>1.043244439473886</v>
       </c>
       <c r="E24">
-        <v>1.018806976505831</v>
+        <v>1.055112041017667</v>
       </c>
       <c r="F24">
-        <v>1.019107190496137</v>
+        <v>1.061607945696839</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047715418939359</v>
+        <v>1.042647646875976</v>
       </c>
       <c r="J24">
-        <v>1.030236550369319</v>
+        <v>1.047974077797235</v>
       </c>
       <c r="K24">
-        <v>1.03451191402417</v>
+        <v>1.046589413420732</v>
       </c>
       <c r="L24">
-        <v>1.032511678521621</v>
+        <v>1.058416735397471</v>
       </c>
       <c r="M24">
-        <v>1.032806870209068</v>
+        <v>1.064891011034539</v>
       </c>
       <c r="N24">
-        <v>1.031699604440627</v>
+        <v>1.049462321192014</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011598892896741</v>
+        <v>1.043518691177926</v>
       </c>
       <c r="D25">
-        <v>1.027224438446528</v>
+        <v>1.044506342033138</v>
       </c>
       <c r="E25">
-        <v>1.027167981731087</v>
+        <v>1.056841358544848</v>
       </c>
       <c r="F25">
-        <v>1.028493619687963</v>
+        <v>1.063578658596675</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050890895567932</v>
+        <v>1.043136686605787</v>
       </c>
       <c r="J25">
-        <v>1.035742115343703</v>
+        <v>1.049065421679083</v>
       </c>
       <c r="K25">
-        <v>1.039414334668802</v>
+        <v>1.047531758810174</v>
       </c>
       <c r="L25">
-        <v>1.039358696509532</v>
+        <v>1.059829196646888</v>
       </c>
       <c r="M25">
-        <v>1.040665144328166</v>
+        <v>1.066546372390458</v>
       </c>
       <c r="N25">
-        <v>1.037212987948772</v>
+        <v>1.050555214907354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_104/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_104/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044871575449428</v>
+        <v>1.018297466185087</v>
       </c>
       <c r="D2">
-        <v>1.045513116010696</v>
+        <v>1.03212148485736</v>
       </c>
       <c r="E2">
-        <v>1.058222930568204</v>
+        <v>1.033588642913011</v>
       </c>
       <c r="F2">
-        <v>1.065153902051089</v>
+        <v>1.035704446601659</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043521990393978</v>
+        <v>1.053283299939018</v>
       </c>
       <c r="J2">
-        <v>1.049934340087536</v>
+        <v>1.039944344521386</v>
       </c>
       <c r="K2">
-        <v>1.048281145596202</v>
+        <v>1.043150744481775</v>
       </c>
       <c r="L2">
-        <v>1.060955752903116</v>
+        <v>1.044599057019981</v>
       </c>
       <c r="M2">
-        <v>1.067867908212554</v>
+        <v>1.046687800861632</v>
       </c>
       <c r="N2">
-        <v>1.051425367279613</v>
+        <v>1.041421184773889</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04585432389959</v>
+        <v>1.02301176739662</v>
       </c>
       <c r="D3">
-        <v>1.046244273953502</v>
+        <v>1.035573101936145</v>
       </c>
       <c r="E3">
-        <v>1.059227385963914</v>
+        <v>1.038118797457178</v>
       </c>
       <c r="F3">
-        <v>1.066299642683366</v>
+        <v>1.040794113540769</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043798993715062</v>
+        <v>1.054944100976811</v>
       </c>
       <c r="J3">
-        <v>1.050564355742953</v>
+        <v>1.042894177568113</v>
       </c>
       <c r="K3">
-        <v>1.048823968273799</v>
+        <v>1.04577018465987</v>
       </c>
       <c r="L3">
-        <v>1.061773715953557</v>
+        <v>1.048286110356494</v>
       </c>
       <c r="M3">
-        <v>1.068828166475832</v>
+        <v>1.050930334773766</v>
       </c>
       <c r="N3">
-        <v>1.052056277629524</v>
+        <v>1.044375206921894</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046490428242637</v>
+        <v>1.025997219588923</v>
       </c>
       <c r="D4">
-        <v>1.046717447159297</v>
+        <v>1.037760966730115</v>
       </c>
       <c r="E4">
-        <v>1.05987794047193</v>
+        <v>1.040992757978893</v>
       </c>
       <c r="F4">
-        <v>1.067041926222849</v>
+        <v>1.044024093986121</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043976953977678</v>
+        <v>1.055984984218043</v>
       </c>
       <c r="J4">
-        <v>1.050971601249028</v>
+        <v>1.044758507773245</v>
       </c>
       <c r="K4">
-        <v>1.049174607287866</v>
+        <v>1.047424048874977</v>
       </c>
       <c r="L4">
-        <v>1.062302983137035</v>
+        <v>1.050620383594556</v>
       </c>
       <c r="M4">
-        <v>1.069449843228557</v>
+        <v>1.053618707088261</v>
       </c>
       <c r="N4">
-        <v>1.05246410147093</v>
+        <v>1.046242184689759</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046757894086728</v>
+        <v>1.027237315119915</v>
       </c>
       <c r="D5">
-        <v>1.046916383853242</v>
+        <v>1.038670198964178</v>
       </c>
       <c r="E5">
-        <v>1.060151577732052</v>
+        <v>1.042187748039937</v>
       </c>
       <c r="F5">
-        <v>1.067354200289691</v>
+        <v>1.045367390581573</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044051461827065</v>
+        <v>1.056414701697505</v>
       </c>
       <c r="J5">
-        <v>1.0511427069807</v>
+        <v>1.045531987397311</v>
       </c>
       <c r="K5">
-        <v>1.049321870862598</v>
+        <v>1.048109801092939</v>
       </c>
       <c r="L5">
-        <v>1.06252548423294</v>
+        <v>1.051589810330062</v>
       </c>
       <c r="M5">
-        <v>1.069711273574512</v>
+        <v>1.054735785123419</v>
       </c>
       <c r="N5">
-        <v>1.052635450192366</v>
+        <v>1.04701676274361</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046802805557525</v>
+        <v>1.027444669872451</v>
       </c>
       <c r="D6">
-        <v>1.046949787033701</v>
+        <v>1.038822254796462</v>
       </c>
       <c r="E6">
-        <v>1.060197531066808</v>
+        <v>1.042387630994186</v>
       </c>
       <c r="F6">
-        <v>1.06740664525432</v>
+        <v>1.045592097029295</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044063954030816</v>
+        <v>1.056486397667327</v>
       </c>
       <c r="J6">
-        <v>1.051171430490799</v>
+        <v>1.045661264670296</v>
       </c>
       <c r="K6">
-        <v>1.049346588541322</v>
+        <v>1.048224391484185</v>
       </c>
       <c r="L6">
-        <v>1.062562842964852</v>
+        <v>1.05175189541499</v>
       </c>
       <c r="M6">
-        <v>1.069755173407336</v>
+        <v>1.054922592269654</v>
       </c>
       <c r="N6">
-        <v>1.052664214493144</v>
+        <v>1.047146223605151</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046494001947869</v>
+        <v>1.026013847959822</v>
       </c>
       <c r="D7">
-        <v>1.046720105304612</v>
+        <v>1.037773156909021</v>
       </c>
       <c r="E7">
-        <v>1.059881596260775</v>
+        <v>1.041008776798772</v>
       </c>
       <c r="F7">
-        <v>1.067046097987908</v>
+        <v>1.044042099746376</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043977950760552</v>
+        <v>1.055990756771827</v>
       </c>
       <c r="J7">
-        <v>1.050973887966853</v>
+        <v>1.044768883011721</v>
       </c>
       <c r="K7">
-        <v>1.049176575601692</v>
+        <v>1.047433248993194</v>
       </c>
       <c r="L7">
-        <v>1.06230595621934</v>
+        <v>1.050633383338598</v>
       </c>
       <c r="M7">
-        <v>1.06945333616994</v>
+        <v>1.053633684434777</v>
       </c>
       <c r="N7">
-        <v>1.052466391436155</v>
+        <v>1.046252574662264</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04520365816177</v>
+        <v>1.019904505224074</v>
       </c>
       <c r="D8">
-        <v>1.045760200227594</v>
+        <v>1.033297632673984</v>
       </c>
       <c r="E8">
-        <v>1.058562265390425</v>
+        <v>1.035131819000684</v>
       </c>
       <c r="F8">
-        <v>1.065540921205862</v>
+        <v>1.037438007409659</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043615869661435</v>
+        <v>1.053851699364733</v>
       </c>
       <c r="J8">
-        <v>1.050147342813375</v>
+        <v>1.040950664305033</v>
       </c>
       <c r="K8">
-        <v>1.048464719686556</v>
+        <v>1.044044692715183</v>
       </c>
       <c r="L8">
-        <v>1.061232189016526</v>
+        <v>1.045856040839973</v>
       </c>
       <c r="M8">
-        <v>1.068192364317593</v>
+        <v>1.048133656623622</v>
       </c>
       <c r="N8">
-        <v>1.051638672493753</v>
+        <v>1.042428933647056</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042931459343919</v>
+        <v>1.008613576185283</v>
       </c>
       <c r="D9">
-        <v>1.044069263712775</v>
+        <v>1.025044994388551</v>
       </c>
       <c r="E9">
-        <v>1.056242094335347</v>
+        <v>1.024312410519551</v>
       </c>
       <c r="F9">
-        <v>1.062895617244296</v>
+        <v>1.025287464812175</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042968053197926</v>
+        <v>1.049813575073246</v>
       </c>
       <c r="J9">
-        <v>1.048687695073564</v>
+        <v>1.033865790974603</v>
       </c>
       <c r="K9">
-        <v>1.04720574126911</v>
+        <v>1.03774439452065</v>
       </c>
       <c r="L9">
-        <v>1.059340023560351</v>
+        <v>1.037022977412687</v>
       </c>
       <c r="M9">
-        <v>1.065972883996105</v>
+        <v>1.037983173453348</v>
       </c>
       <c r="N9">
-        <v>1.050176951886729</v>
+        <v>1.035333998983851</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041417724241396</v>
+        <v>1.000691751025991</v>
       </c>
       <c r="D10">
-        <v>1.042942387756301</v>
+        <v>1.019271286756077</v>
       </c>
       <c r="E10">
-        <v>1.054698480414818</v>
+        <v>1.016751690936019</v>
       </c>
       <c r="F10">
-        <v>1.061136817965907</v>
+        <v>1.016800250193157</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042529617735946</v>
+        <v>1.046925436572333</v>
       </c>
       <c r="J10">
-        <v>1.047712494041499</v>
+        <v>1.028877950221206</v>
       </c>
       <c r="K10">
-        <v>1.046363364004099</v>
+        <v>1.033301096673414</v>
       </c>
       <c r="L10">
-        <v>1.058078575349395</v>
+        <v>1.030824935097531</v>
       </c>
       <c r="M10">
-        <v>1.06449494592316</v>
+        <v>1.030872654630557</v>
       </c>
       <c r="N10">
-        <v>1.049200365957341</v>
+        <v>1.03033907492447</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040762516245141</v>
+        <v>0.9971578638986366</v>
       </c>
       <c r="D11">
-        <v>1.04245454717273</v>
+        <v>1.016700441781629</v>
       </c>
       <c r="E11">
-        <v>1.054030836314732</v>
+        <v>1.013386511396307</v>
       </c>
       <c r="F11">
-        <v>1.060376366141589</v>
+        <v>1.013023253858027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042338218806388</v>
+        <v>1.045624601864604</v>
       </c>
       <c r="J11">
-        <v>1.047289728055492</v>
+        <v>1.026649358914156</v>
       </c>
       <c r="K11">
-        <v>1.045997886426492</v>
+        <v>1.031314137939135</v>
       </c>
       <c r="L11">
-        <v>1.057532358854647</v>
+        <v>1.02806031741128</v>
       </c>
       <c r="M11">
-        <v>1.063855394043797</v>
+        <v>1.027703679963616</v>
       </c>
       <c r="N11">
-        <v>1.048776999595142</v>
+        <v>1.028107318762141</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04051918047335</v>
+        <v>0.9958287096149755</v>
       </c>
       <c r="D12">
-        <v>1.0422733579165</v>
+        <v>1.015734300870002</v>
       </c>
       <c r="E12">
-        <v>1.053782956844091</v>
+        <v>1.012121995374484</v>
       </c>
       <c r="F12">
-        <v>1.06009406896952</v>
+        <v>1.011604045170923</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042266891589695</v>
+        <v>1.045133517813795</v>
       </c>
       <c r="J12">
-        <v>1.047132619579287</v>
+        <v>1.025810661138174</v>
       </c>
       <c r="K12">
-        <v>1.045862023672068</v>
+        <v>1.030566139783033</v>
       </c>
       <c r="L12">
-        <v>1.05732946993861</v>
+        <v>1.027020584555771</v>
       </c>
       <c r="M12">
-        <v>1.063617897151986</v>
+        <v>1.026512256309026</v>
       </c>
       <c r="N12">
-        <v>1.04861966800688</v>
+        <v>1.027267429939117</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040571375115414</v>
+        <v>0.9961145806746803</v>
       </c>
       <c r="D13">
-        <v>1.042312222869267</v>
+        <v>1.015942058629153</v>
       </c>
       <c r="E13">
-        <v>1.053836122698672</v>
+        <v>1.012393910030883</v>
       </c>
       <c r="F13">
-        <v>1.06015461504247</v>
+        <v>1.011909222172308</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042282202065321</v>
+        <v>1.045239220175628</v>
       </c>
       <c r="J13">
-        <v>1.04716632323984</v>
+        <v>1.025991067349016</v>
       </c>
       <c r="K13">
-        <v>1.045891171578824</v>
+        <v>1.030727046620509</v>
       </c>
       <c r="L13">
-        <v>1.057372990284259</v>
+        <v>1.027244203017216</v>
       </c>
       <c r="M13">
-        <v>1.063668838269418</v>
+        <v>1.026768482373535</v>
       </c>
       <c r="N13">
-        <v>1.048653419530497</v>
+        <v>1.027448092347472</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040742401265105</v>
+        <v>0.9970483380696535</v>
       </c>
       <c r="D14">
-        <v>1.042439569671869</v>
+        <v>1.016620812546941</v>
       </c>
       <c r="E14">
-        <v>1.054010344206926</v>
+        <v>1.013282287624629</v>
       </c>
       <c r="F14">
-        <v>1.060353027930601</v>
+        <v>1.012906279116161</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042332327630717</v>
+        <v>1.045584171877724</v>
       </c>
       <c r="J14">
-        <v>1.047276742934672</v>
+        <v>1.026580257632563</v>
       </c>
       <c r="K14">
-        <v>1.045986658171546</v>
+        <v>1.031252514190402</v>
       </c>
       <c r="L14">
-        <v>1.057515587987086</v>
+        <v>1.0279746386736</v>
       </c>
       <c r="M14">
-        <v>1.063835761227417</v>
+        <v>1.027605493543449</v>
       </c>
       <c r="N14">
-        <v>1.048763996033961</v>
+        <v>1.028038119348803</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040847781115636</v>
+        <v>0.9976214397715394</v>
       </c>
       <c r="D15">
-        <v>1.042518034444973</v>
+        <v>1.017037511149305</v>
       </c>
       <c r="E15">
-        <v>1.054117702851995</v>
+        <v>1.013827694441412</v>
       </c>
       <c r="F15">
-        <v>1.060475298994058</v>
+        <v>1.013518414230568</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042363180761461</v>
+        <v>1.045795650891186</v>
       </c>
       <c r="J15">
-        <v>1.047344766310202</v>
+        <v>1.026941815431606</v>
       </c>
       <c r="K15">
-        <v>1.046045476301112</v>
+        <v>1.031574937896475</v>
       </c>
       <c r="L15">
-        <v>1.057603447177255</v>
+        <v>1.028422962539339</v>
       </c>
       <c r="M15">
-        <v>1.063938616083193</v>
+        <v>1.028119280768266</v>
       </c>
       <c r="N15">
-        <v>1.048832116010487</v>
+        <v>1.028400190601391</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041461213507329</v>
+        <v>1.000924020866123</v>
       </c>
       <c r="D16">
-        <v>1.042974766392613</v>
+        <v>1.01944036531585</v>
       </c>
       <c r="E16">
-        <v>1.054742805614895</v>
+        <v>1.016973034161374</v>
       </c>
       <c r="F16">
-        <v>1.061187310264343</v>
+        <v>1.01704868957305</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042542287544697</v>
+        <v>1.04701068096531</v>
       </c>
       <c r="J16">
-        <v>1.047740541178125</v>
+        <v>1.029024357625556</v>
       </c>
       <c r="K16">
-        <v>1.046387604361058</v>
+        <v>1.033431596556947</v>
       </c>
       <c r="L16">
-        <v>1.058114825948108</v>
+        <v>1.031006653249655</v>
       </c>
       <c r="M16">
-        <v>1.064537399434457</v>
+        <v>1.031081004976716</v>
       </c>
       <c r="N16">
-        <v>1.049228452924118</v>
+        <v>1.030485690244128</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041846070321198</v>
+        <v>1.002967246218045</v>
       </c>
       <c r="D17">
-        <v>1.043261290731744</v>
+        <v>1.020928263761744</v>
       </c>
       <c r="E17">
-        <v>1.055135117427229</v>
+        <v>1.018921011679209</v>
       </c>
       <c r="F17">
-        <v>1.061634236117174</v>
+        <v>1.019235192162963</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042654220770453</v>
+        <v>1.047759146938267</v>
       </c>
       <c r="J17">
-        <v>1.047988667367835</v>
+        <v>1.030311873151307</v>
       </c>
       <c r="K17">
-        <v>1.046602019103319</v>
+        <v>1.034579032298991</v>
       </c>
       <c r="L17">
-        <v>1.058435600311516</v>
+        <v>1.032605225563252</v>
       </c>
       <c r="M17">
-        <v>1.064913109065454</v>
+        <v>1.032914159887792</v>
       </c>
       <c r="N17">
-        <v>1.049476931481478</v>
+        <v>1.031775034189605</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042070574829105</v>
+        <v>1.004149087675617</v>
       </c>
       <c r="D18">
-        <v>1.043428425524992</v>
+        <v>1.021789340695336</v>
       </c>
       <c r="E18">
-        <v>1.055364018691398</v>
+        <v>1.020048479458025</v>
       </c>
       <c r="F18">
-        <v>1.061895028440162</v>
+        <v>1.020500770258505</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042719359621278</v>
+        <v>1.048190890653039</v>
       </c>
       <c r="J18">
-        <v>1.048133347148944</v>
+        <v>1.031056258691646</v>
       </c>
       <c r="K18">
-        <v>1.046727013837308</v>
+        <v>1.035242270405668</v>
       </c>
       <c r="L18">
-        <v>1.058622702439698</v>
+        <v>1.033529896465981</v>
       </c>
       <c r="M18">
-        <v>1.06513229319898</v>
+        <v>1.03397477400552</v>
       </c>
       <c r="N18">
-        <v>1.049621816724471</v>
+        <v>1.032520476842794</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042147129136157</v>
+        <v>1.004550406733171</v>
       </c>
       <c r="D19">
-        <v>1.043485415840758</v>
+        <v>1.02208181102927</v>
       </c>
       <c r="E19">
-        <v>1.055442080377146</v>
+        <v>1.020431455702017</v>
       </c>
       <c r="F19">
-        <v>1.061983970199878</v>
+        <v>1.020930669695533</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042741544851505</v>
+        <v>1.048337295995505</v>
       </c>
       <c r="J19">
-        <v>1.048182671057654</v>
+        <v>1.031308971686956</v>
       </c>
       <c r="K19">
-        <v>1.046769621965283</v>
+        <v>1.03546740699013</v>
       </c>
       <c r="L19">
-        <v>1.058686499396675</v>
+        <v>1.033843890986379</v>
       </c>
       <c r="M19">
-        <v>1.065207035940945</v>
+        <v>1.034334974625281</v>
       </c>
       <c r="N19">
-        <v>1.049671210678789</v>
+        <v>1.032773548719543</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041804776339267</v>
+        <v>1.00274906186034</v>
       </c>
       <c r="D20">
-        <v>1.043230548342171</v>
+        <v>1.020769332613124</v>
       </c>
       <c r="E20">
-        <v>1.055093018588287</v>
+        <v>1.018712923354244</v>
       </c>
       <c r="F20">
-        <v>1.061586274026443</v>
+        <v>1.019001618468718</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042642226898217</v>
+        <v>1.047679344994277</v>
       </c>
       <c r="J20">
-        <v>1.047962050740822</v>
+        <v>1.03017442155131</v>
       </c>
       <c r="K20">
-        <v>1.046579021642633</v>
+        <v>1.034456551661138</v>
       </c>
       <c r="L20">
-        <v>1.058401184268861</v>
+        <v>1.032434520233911</v>
       </c>
       <c r="M20">
-        <v>1.064872794935106</v>
+        <v>1.032718378323376</v>
       </c>
       <c r="N20">
-        <v>1.049450277055802</v>
+        <v>1.031637387392571</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040692037285771</v>
+        <v>0.9967738334426143</v>
       </c>
       <c r="D21">
-        <v>1.042402068751716</v>
+        <v>1.016421250879661</v>
       </c>
       <c r="E21">
-        <v>1.053959037184462</v>
+        <v>1.013021090762094</v>
       </c>
       <c r="F21">
-        <v>1.060294595627079</v>
+        <v>1.012613127602202</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042317573334542</v>
+        <v>1.045482813084171</v>
       </c>
       <c r="J21">
-        <v>1.047244229136479</v>
+        <v>1.026407061374189</v>
       </c>
       <c r="K21">
-        <v>1.045958542730554</v>
+        <v>1.031098055974212</v>
       </c>
       <c r="L21">
-        <v>1.057473596508926</v>
+        <v>1.027759903555183</v>
       </c>
       <c r="M21">
-        <v>1.063786604886231</v>
+        <v>1.027359416736367</v>
       </c>
       <c r="N21">
-        <v>1.048731436062445</v>
+        <v>1.027864677131876</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039992632017158</v>
+        <v>0.9929209249257847</v>
       </c>
       <c r="D22">
-        <v>1.041881266370436</v>
+        <v>1.013622236228527</v>
       </c>
       <c r="E22">
-        <v>1.053246713671267</v>
+        <v>1.00935784430042</v>
       </c>
       <c r="F22">
-        <v>1.059483441133856</v>
+        <v>1.008501810019633</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042112102052886</v>
+        <v>1.044055890682884</v>
       </c>
       <c r="J22">
-        <v>1.046792476137357</v>
+        <v>1.023975001100905</v>
       </c>
       <c r="K22">
-        <v>1.045567797754812</v>
+        <v>1.028928579467777</v>
       </c>
       <c r="L22">
-        <v>1.056890386673105</v>
+        <v>1.024746172256857</v>
       </c>
       <c r="M22">
-        <v>1.063104028049064</v>
+        <v>1.023906705109729</v>
       </c>
       <c r="N22">
-        <v>1.048279041522247</v>
+        <v>1.025429163054042</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040363379258114</v>
+        <v>0.9949728596085724</v>
       </c>
       <c r="D23">
-        <v>1.042157344232417</v>
+        <v>1.015112432118599</v>
       </c>
       <c r="E23">
-        <v>1.053624267545877</v>
+        <v>1.011308105268387</v>
       </c>
       <c r="F23">
-        <v>1.059913356977682</v>
+        <v>1.010690600276167</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042221154020655</v>
+        <v>1.044816800364333</v>
       </c>
       <c r="J23">
-        <v>1.047031999588033</v>
+        <v>1.02527048737173</v>
       </c>
       <c r="K23">
-        <v>1.045774998172066</v>
+        <v>1.030084317979339</v>
       </c>
       <c r="L23">
-        <v>1.057199556982836</v>
+        <v>1.026351124344993</v>
       </c>
       <c r="M23">
-        <v>1.063465841294255</v>
+        <v>1.025745231433544</v>
       </c>
       <c r="N23">
-        <v>1.048518905123697</v>
+        <v>1.026726489063966</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041823435237853</v>
+        <v>1.002847680620808</v>
       </c>
       <c r="D24">
-        <v>1.043244439473886</v>
+        <v>1.020841167696138</v>
       </c>
       <c r="E24">
-        <v>1.055112041017667</v>
+        <v>1.018806976505831</v>
       </c>
       <c r="F24">
-        <v>1.061607945696839</v>
+        <v>1.019107190496137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042647646875976</v>
+        <v>1.047715418939358</v>
       </c>
       <c r="J24">
-        <v>1.047974077797235</v>
+        <v>1.030236550369318</v>
       </c>
       <c r="K24">
-        <v>1.046589413420732</v>
+        <v>1.03451191402417</v>
       </c>
       <c r="L24">
-        <v>1.058416735397471</v>
+        <v>1.03251167852162</v>
       </c>
       <c r="M24">
-        <v>1.064891011034539</v>
+        <v>1.032806870209069</v>
       </c>
       <c r="N24">
-        <v>1.049462321192014</v>
+        <v>1.031699604440627</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043518691177926</v>
+        <v>1.011598892896741</v>
       </c>
       <c r="D25">
-        <v>1.044506342033138</v>
+        <v>1.027224438446528</v>
       </c>
       <c r="E25">
-        <v>1.056841358544848</v>
+        <v>1.027167981731088</v>
       </c>
       <c r="F25">
-        <v>1.063578658596675</v>
+        <v>1.028493619687963</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043136686605787</v>
+        <v>1.050890895567933</v>
       </c>
       <c r="J25">
-        <v>1.049065421679083</v>
+        <v>1.035742115343703</v>
       </c>
       <c r="K25">
-        <v>1.047531758810174</v>
+        <v>1.039414334668802</v>
       </c>
       <c r="L25">
-        <v>1.059829196646888</v>
+        <v>1.039358696509532</v>
       </c>
       <c r="M25">
-        <v>1.066546372390458</v>
+        <v>1.040665144328166</v>
       </c>
       <c r="N25">
-        <v>1.050555214907354</v>
+        <v>1.037212987948772</v>
       </c>
     </row>
   </sheetData>
